--- a/output/5Y_P6_KFSDIV.xlsx
+++ b/output/5Y_P6_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.6477</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-43</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.568899999999999</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-42</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.429399999999999</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-41</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.603999999999999</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-40</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3595</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0875</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-38</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.1692</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0872</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-36</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0976</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-35</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.8505</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-34</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8576</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-33</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5699</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-32</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5994</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-31</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6663</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-30</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.701</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-29</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8109</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-28</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.9322</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-27</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.5846</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-26</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2867</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.0645</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8083</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.5636</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-22</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.1788</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.5668</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-20</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.962</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-19</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.2659</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-18</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.4103</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-17</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.3976</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-16</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.9013</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-15</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.3527</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8804</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6268</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3636</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8711</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1252</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-9</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1934</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-8</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1176</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-7</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3311</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-6</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3637</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-5</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.6447</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-4</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.486</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-3</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.1958</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-2</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.4264</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>17.107</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.8894</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.4004</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>15.3877</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>14.6367</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.0061</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.835</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>14.4216</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.2404</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.382</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.9583</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.2036</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.9136</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.4338</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.9657</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3568</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.2487</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3991</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.6477</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-43</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.568899999999999</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-42</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.429399999999999</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-41</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.603999999999999</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-40</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3595</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0875</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-38</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.1692</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0872</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-36</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0976</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-35</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.8505</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-34</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8576</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-33</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5699</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-32</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5994</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-31</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6663</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-30</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.701</v>
@@ -5144,7 +5147,7 @@
         <v>193466.7273</v>
       </c>
       <c r="K16" s="1">
-        <v>96433.91190000001</v>
+        <v>96434.71030000001</v>
       </c>
       <c r="L16" s="1">
         <v>10.0822</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-29</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8109</v>
@@ -5197,10 +5200,10 @@
         <v>194346.0787</v>
       </c>
       <c r="K17" s="1">
-        <v>106141.7868</v>
+        <v>106142.5852</v>
       </c>
       <c r="L17" s="1">
-        <v>10.3818</v>
+        <v>10.3819</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-28</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.9322</v>
@@ -5250,7 +5253,7 @@
         <v>214875.5692</v>
       </c>
       <c r="K18" s="1">
-        <v>125300.1766</v>
+        <v>125300.975</v>
       </c>
       <c r="L18" s="1">
         <v>10.7941</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-27</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.5846</v>
@@ -5303,10 +5306,10 @@
         <v>208397.7441</v>
       </c>
       <c r="K19" s="1">
-        <v>133930.0729</v>
+        <v>133930.8713</v>
       </c>
       <c r="L19" s="1">
-        <v>10.9541</v>
+        <v>10.9542</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-26</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2867</v>
@@ -5356,7 +5359,7 @@
         <v>214030.7565</v>
       </c>
       <c r="K20" s="1">
-        <v>160479.5186</v>
+        <v>160480.3171</v>
       </c>
       <c r="L20" s="1">
         <v>11.1974</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.0645</v>
@@ -5409,7 +5412,7 @@
         <v>242451.5794</v>
       </c>
       <c r="K21" s="1">
-        <v>174797.6108</v>
+        <v>174798.4092</v>
       </c>
       <c r="L21" s="1">
         <v>11.281</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8083</v>
@@ -5462,10 +5465,10 @@
         <v>263837.9459</v>
       </c>
       <c r="K22" s="1">
-        <v>172760.7832</v>
+        <v>172769.7192</v>
       </c>
       <c r="L22" s="1">
-        <v>11.2626</v>
+        <v>11.2632</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.5636</v>
@@ -5515,10 +5518,10 @@
         <v>270116.6545</v>
       </c>
       <c r="K23" s="1">
-        <v>171368.8535</v>
+        <v>171383.3527</v>
       </c>
       <c r="L23" s="1">
-        <v>11.2456</v>
+        <v>11.2466</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-22</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.1788</v>
@@ -5568,10 +5571,10 @@
         <v>280676.5003</v>
       </c>
       <c r="K24" s="1">
-        <v>185145.1861</v>
+        <v>185159.6854</v>
       </c>
       <c r="L24" s="1">
-        <v>11.3919</v>
+        <v>11.3928</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.5668</v>
@@ -5621,10 +5624,10 @@
         <v>314836.4555</v>
       </c>
       <c r="K25" s="1">
-        <v>201452.9208</v>
+        <v>201467.4201</v>
       </c>
       <c r="L25" s="1">
-        <v>11.52</v>
+        <v>11.5208</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-20</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.962</v>
@@ -5674,10 +5677,10 @@
         <v>314871.743</v>
       </c>
       <c r="K26" s="1">
-        <v>187170.7138</v>
+        <v>187242.2597</v>
       </c>
       <c r="L26" s="1">
-        <v>11.3376</v>
+        <v>11.342</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-19</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.2659</v>
@@ -5727,10 +5730,10 @@
         <v>301850.8699</v>
       </c>
       <c r="K27" s="1">
-        <v>207215.5195</v>
+        <v>207287.0653</v>
       </c>
       <c r="L27" s="1">
-        <v>11.5494</v>
+        <v>11.5534</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-18</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.4103</v>
@@ -5780,10 +5783,10 @@
         <v>314749.5454</v>
       </c>
       <c r="K28" s="1">
-        <v>247747.1821</v>
+        <v>247818.728</v>
       </c>
       <c r="L28" s="1">
-        <v>11.6645</v>
+        <v>11.6679</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-17</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.3976</v>
@@ -5833,10 +5836,10 @@
         <v>324444.8432</v>
       </c>
       <c r="K29" s="1">
-        <v>254714.4306</v>
+        <v>254785.9764</v>
       </c>
       <c r="L29" s="1">
-        <v>11.6843</v>
+        <v>11.6876</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-16</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.9013</v>
@@ -5886,10 +5889,10 @@
         <v>355589.7484</v>
       </c>
       <c r="K30" s="1">
-        <v>265032.4844</v>
+        <v>265104.0302</v>
       </c>
       <c r="L30" s="1">
-        <v>11.7114</v>
+        <v>11.7146</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-15</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.3527</v>
@@ -5939,10 +5942,10 @@
         <v>375736.5388</v>
       </c>
       <c r="K31" s="1">
-        <v>263650.7136</v>
+        <v>263727.7856</v>
       </c>
       <c r="L31" s="1">
-        <v>11.7056</v>
+        <v>11.7091</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8804</v>
@@ -5992,10 +5995,10 @@
         <v>397591.5591</v>
       </c>
       <c r="K32" s="1">
-        <v>263503.3338</v>
+        <v>263580.9952</v>
       </c>
       <c r="L32" s="1">
-        <v>11.7048</v>
+        <v>11.7083</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6268</v>
@@ -6045,10 +6048,10 @@
         <v>434394.0914</v>
       </c>
       <c r="K33" s="1">
-        <v>261640.8681</v>
+        <v>261725.9749</v>
       </c>
       <c r="L33" s="1">
-        <v>11.6916</v>
+        <v>11.6954</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3636</v>
@@ -6098,10 +6101,10 @@
         <v>460512.9055</v>
       </c>
       <c r="K34" s="1">
-        <v>254942.1697</v>
+        <v>255054.0144</v>
       </c>
       <c r="L34" s="1">
-        <v>11.6298</v>
+        <v>11.6349</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8711</v>
@@ -6151,10 +6154,10 @@
         <v>438455.3691</v>
       </c>
       <c r="K35" s="1">
-        <v>248798.8132</v>
+        <v>248935.2003</v>
       </c>
       <c r="L35" s="1">
-        <v>11.56</v>
+        <v>11.5664</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1252</v>
@@ -6204,10 +6207,10 @@
         <v>464200.3389</v>
       </c>
       <c r="K36" s="1">
-        <v>291024.9637</v>
+        <v>291161.3509</v>
       </c>
       <c r="L36" s="1">
-        <v>11.8493</v>
+        <v>11.8549</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-9</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1934</v>
@@ -6257,10 +6260,10 @@
         <v>475873.5255</v>
       </c>
       <c r="K37" s="1">
-        <v>294811.5519</v>
+        <v>294947.9391</v>
       </c>
       <c r="L37" s="1">
-        <v>11.8742</v>
+        <v>11.8797</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-8</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1176</v>
@@ -6310,10 +6313,10 @@
         <v>483918.8411</v>
       </c>
       <c r="K38" s="1">
-        <v>303156.5784</v>
+        <v>303292.9656</v>
       </c>
       <c r="L38" s="1">
-        <v>11.9284</v>
+        <v>11.9337</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-7</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3311</v>
@@ -6363,10 +6366,10 @@
         <v>537109.5968000001</v>
       </c>
       <c r="K39" s="1">
-        <v>315125.7397</v>
+        <v>315262.1269</v>
       </c>
       <c r="L39" s="1">
-        <v>11.9998</v>
+        <v>12.005</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-6</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3637</v>
@@ -6416,10 +6419,10 @@
         <v>547919.2489</v>
       </c>
       <c r="K40" s="1">
-        <v>293236.3273</v>
+        <v>293460.2049</v>
       </c>
       <c r="L40" s="1">
-        <v>11.8069</v>
+        <v>11.8159</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-5</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.6447</v>
@@ -6469,10 +6472,10 @@
         <v>539629.99</v>
       </c>
       <c r="K41" s="1">
-        <v>302463.5374</v>
+        <v>302687.415</v>
       </c>
       <c r="L41" s="1">
-        <v>11.8915</v>
+        <v>11.9003</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-4</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.486</v>
@@ -6522,10 +6525,10 @@
         <v>595387.017</v>
       </c>
       <c r="K42" s="1">
-        <v>330829.2113</v>
+        <v>331053.0889</v>
       </c>
       <c r="L42" s="1">
-        <v>12.088</v>
+        <v>12.0962</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-3</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.1958</v>
@@ -6575,10 +6578,10 @@
         <v>624179.8995000001</v>
       </c>
       <c r="K43" s="1">
-        <v>317798.644</v>
+        <v>318074.5867</v>
       </c>
       <c r="L43" s="1">
-        <v>11.9795</v>
+        <v>11.9899</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-2</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.4264</v>
@@ -6628,10 +6631,10 @@
         <v>640161.5618</v>
       </c>
       <c r="K44" s="1">
-        <v>308970.5103</v>
+        <v>309281.7042</v>
       </c>
       <c r="L44" s="1">
-        <v>11.8905</v>
+        <v>11.9025</v>
       </c>
       <c r="M44" s="1">
         <v>0.75</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>17.107</v>
@@ -6681,10 +6684,10 @@
         <v>685500.3292</v>
       </c>
       <c r="K45" s="1">
-        <v>313004.9521</v>
+        <v>313316.146</v>
       </c>
       <c r="L45" s="1">
-        <v>11.9332</v>
+        <v>11.9451</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.8894</v>
@@ -6734,10 +6737,10 @@
         <v>689902.6534</v>
       </c>
       <c r="K46" s="1">
-        <v>305158.3506</v>
+        <v>305500.9011</v>
       </c>
       <c r="L46" s="1">
-        <v>11.8407</v>
+        <v>11.854</v>
       </c>
       <c r="M46" s="1">
         <v>1</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.4004</v>
@@ -6787,10 +6790,10 @@
         <v>710006.5766</v>
       </c>
       <c r="K47" s="1">
-        <v>320818.5815</v>
+        <v>321161.132</v>
       </c>
       <c r="L47" s="1">
-        <v>12.0169</v>
+        <v>12.0297</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>15.3877</v>
@@ -6840,10 +6843,10 @@
         <v>691509.1207</v>
       </c>
       <c r="K48" s="1">
-        <v>343939.3288</v>
+        <v>344281.8793</v>
       </c>
       <c r="L48" s="1">
-        <v>12.238</v>
+        <v>12.2501</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>14.6367</v>
@@ -6893,10 +6896,10 @@
         <v>678416.5207</v>
       </c>
       <c r="K49" s="1">
-        <v>382498.3997</v>
+        <v>382840.9502</v>
       </c>
       <c r="L49" s="1">
-        <v>12.4979</v>
+        <v>12.509</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.0061</v>
@@ -6946,10 +6949,10 @@
         <v>634811.2111</v>
       </c>
       <c r="K50" s="1">
-        <v>415569.0869</v>
+        <v>415911.6374</v>
       </c>
       <c r="L50" s="1">
-        <v>12.6466</v>
+        <v>12.6571</v>
       </c>
       <c r="M50" s="1">
         <v>0.5</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.835</v>
@@ -6999,10 +7002,10 @@
         <v>690570.344</v>
       </c>
       <c r="K51" s="1">
-        <v>479297.029</v>
+        <v>479639.5795</v>
       </c>
       <c r="L51" s="1">
-        <v>12.6966</v>
+        <v>12.7057</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>14.4216</v>
@@ -7052,10 +7055,10 @@
         <v>721772.8963</v>
       </c>
       <c r="K52" s="1">
-        <v>457984.9808</v>
+        <v>458412.7014</v>
       </c>
       <c r="L52" s="1">
-        <v>12.6471</v>
+        <v>12.6589</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.2404</v>
@@ -7105,10 +7108,10 @@
         <v>689999.3011</v>
       </c>
       <c r="K53" s="1">
-        <v>446737.5181</v>
+        <v>447210.1492</v>
       </c>
       <c r="L53" s="1">
-        <v>12.6075</v>
+        <v>12.6208</v>
       </c>
       <c r="M53" s="1">
         <v>0.4</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.382</v>
@@ -7158,10 +7161,10 @@
         <v>678834.7324</v>
       </c>
       <c r="K54" s="1">
-        <v>498718.7734</v>
+        <v>499191.4044</v>
       </c>
       <c r="L54" s="1">
-        <v>12.6731</v>
+        <v>12.6851</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.9583</v>
@@ -7211,10 +7214,10 @@
         <v>670525.3922</v>
       </c>
       <c r="K55" s="1">
-        <v>542607.5189</v>
+        <v>543080.15</v>
       </c>
       <c r="L55" s="1">
-        <v>12.6512</v>
+        <v>12.6622</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.2036</v>
@@ -7264,10 +7267,10 @@
         <v>691489.0256000001</v>
       </c>
       <c r="K56" s="1">
-        <v>570854.3188</v>
+        <v>571326.9497999999</v>
       </c>
       <c r="L56" s="1">
-        <v>12.6163</v>
+        <v>12.6267</v>
       </c>
       <c r="M56" s="1">
         <v>0.4</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.9136</v>
@@ -7317,10 +7320,10 @@
         <v>749777.7111</v>
       </c>
       <c r="K57" s="1">
-        <v>569773.4445</v>
+        <v>570250.398</v>
       </c>
       <c r="L57" s="1">
-        <v>12.6171</v>
+        <v>12.6276</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.4338</v>
@@ -7370,10 +7373,10 @@
         <v>782333.6167</v>
       </c>
       <c r="K58" s="1">
-        <v>547685.5533</v>
+        <v>548250.7593</v>
       </c>
       <c r="L58" s="1">
-        <v>12.6044</v>
+        <v>12.6174</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.9657</v>
@@ -7423,10 +7426,10 @@
         <v>772474.6635</v>
       </c>
       <c r="K59" s="1">
-        <v>535079.2626</v>
+        <v>535694.8537</v>
       </c>
       <c r="L59" s="1">
-        <v>12.5855</v>
+        <v>12.6</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3568</v>
@@ -7476,10 +7479,10 @@
         <v>811328.4636</v>
       </c>
       <c r="K60" s="1">
-        <v>565057.9765</v>
+        <v>565673.5676</v>
       </c>
       <c r="L60" s="1">
-        <v>12.6064</v>
+        <v>12.6202</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.2487</v>
@@ -7529,10 +7532,10 @@
         <v>816552.7304999999</v>
       </c>
       <c r="K61" s="1">
-        <v>557533.5008</v>
+        <v>558179.1705</v>
       </c>
       <c r="L61" s="1">
-        <v>12.5966</v>
+        <v>12.6112</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3991</v>
@@ -7582,10 +7585,10 @@
         <v>833304.7753</v>
       </c>
       <c r="K62" s="1">
-        <v>572368.4611</v>
+        <v>573014.1308</v>
       </c>
       <c r="L62" s="1">
-        <v>12.6133</v>
+        <v>12.6275</v>
       </c>
       <c r="M62" s="1">
         <v>0.4</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.6477</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-43</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.568899999999999</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-42</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.429399999999999</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-41</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.603999999999999</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-40</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3595</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0875</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-38</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.1692</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0872</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-36</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0976</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-35</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.8505</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-34</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8576</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-33</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5699</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-32</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5994</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-31</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6663</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-30</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.701</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-29</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8109</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-28</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.9322</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-27</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.5846</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-26</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2867</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.0645</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8083</v>
@@ -8774,10 +8777,10 @@
         <v>265663.1863</v>
       </c>
       <c r="K22" s="1">
-        <v>182111.9721</v>
+        <v>182118.3566</v>
       </c>
       <c r="L22" s="1">
-        <v>11.3182</v>
+        <v>11.3186</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.5636</v>
@@ -8827,10 +8830,10 @@
         <v>271749.8034</v>
       </c>
       <c r="K23" s="1">
-        <v>181213.5423</v>
+        <v>181223.5176</v>
       </c>
       <c r="L23" s="1">
-        <v>11.308</v>
+        <v>11.3086</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-22</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.1788</v>
@@ -8880,10 +8883,10 @@
         <v>282319.5048</v>
       </c>
       <c r="K24" s="1">
-        <v>196291.3668</v>
+        <v>196301.3421</v>
       </c>
       <c r="L24" s="1">
-        <v>11.4558</v>
+        <v>11.4563</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.5668</v>
@@ -8933,10 +8936,10 @@
         <v>317853.6493</v>
       </c>
       <c r="K25" s="1">
-        <v>214103.7608</v>
+        <v>214113.7361</v>
       </c>
       <c r="L25" s="1">
-        <v>11.5834</v>
+        <v>11.584</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-20</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.962</v>
@@ -8986,10 +8989,10 @@
         <v>317294.3943</v>
       </c>
       <c r="K26" s="1">
-        <v>199656.2079</v>
+        <v>199723.8902</v>
       </c>
       <c r="L26" s="1">
-        <v>11.413</v>
+        <v>11.4168</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-19</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.2659</v>
@@ -9039,10 +9042,10 @@
         <v>302815.2854</v>
       </c>
       <c r="K27" s="1">
-        <v>221574.6404</v>
+        <v>221642.3228</v>
       </c>
       <c r="L27" s="1">
-        <v>11.6248</v>
+        <v>11.6283</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-18</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.4103</v>
@@ -9092,10 +9095,10 @@
         <v>315900.2014</v>
       </c>
       <c r="K28" s="1">
-        <v>265341.1787</v>
+        <v>265408.861</v>
       </c>
       <c r="L28" s="1">
-        <v>11.7296</v>
+        <v>11.7326</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-17</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.3976</v>
@@ -9145,10 +9148,10 @@
         <v>325571.974</v>
       </c>
       <c r="K29" s="1">
-        <v>273498.6158</v>
+        <v>273566.2982</v>
       </c>
       <c r="L29" s="1">
-        <v>11.7495</v>
+        <v>11.7524</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-16</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.9013</v>
@@ -9198,10 +9201,10 @@
         <v>358178.2874</v>
       </c>
       <c r="K30" s="1">
-        <v>285282.8106</v>
+        <v>285350.4929</v>
       </c>
       <c r="L30" s="1">
-        <v>11.7758</v>
+        <v>11.7786</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-15</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.3527</v>
@@ -9251,10 +9254,10 @@
         <v>379068.3808</v>
       </c>
       <c r="K31" s="1">
-        <v>284600.3252</v>
+        <v>284670.737</v>
       </c>
       <c r="L31" s="1">
-        <v>11.7733</v>
+        <v>11.7762</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8804</v>
@@ -9304,10 +9307,10 @@
         <v>401821.7148</v>
       </c>
       <c r="K32" s="1">
-        <v>285269.1258</v>
+        <v>285339.5377</v>
       </c>
       <c r="L32" s="1">
-        <v>11.7766</v>
+        <v>11.7795</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6268</v>
@@ -9357,10 +9360,10 @@
         <v>440707.1827</v>
       </c>
       <c r="K33" s="1">
-        <v>284122.5346</v>
+        <v>284197.5301</v>
       </c>
       <c r="L33" s="1">
-        <v>11.7693</v>
+        <v>11.7725</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3636</v>
@@ -9410,10 +9413,10 @@
         <v>468139.9943</v>
       </c>
       <c r="K34" s="1">
-        <v>277784.3394</v>
+        <v>277884.6339</v>
       </c>
       <c r="L34" s="1">
-        <v>11.7167</v>
+        <v>11.7209</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8711</v>
@@ -9463,10 +9466,10 @@
         <v>443380.2341</v>
       </c>
       <c r="K35" s="1">
-        <v>272059.0869</v>
+        <v>272182.2535</v>
       </c>
       <c r="L35" s="1">
-        <v>11.6581</v>
+        <v>11.6634</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1252</v>
@@ -9516,10 +9519,10 @@
         <v>470465.9331</v>
       </c>
       <c r="K36" s="1">
-        <v>318794.5509</v>
+        <v>318917.7175</v>
       </c>
       <c r="L36" s="1">
-        <v>11.9403</v>
+        <v>11.9449</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-9</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1934</v>
@@ -9569,10 +9572,10 @@
         <v>482285.611</v>
       </c>
       <c r="K37" s="1">
-        <v>323892.0472</v>
+        <v>324015.2139</v>
       </c>
       <c r="L37" s="1">
-        <v>11.9697</v>
+        <v>11.9743</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-8</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1176</v>
@@ -9622,10 +9625,10 @@
         <v>490145.8358</v>
       </c>
       <c r="K38" s="1">
-        <v>333999.6579</v>
+        <v>334122.8245</v>
       </c>
       <c r="L38" s="1">
-        <v>12.0274</v>
+        <v>12.0318</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-7</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3311</v>
@@ -9675,10 +9678,10 @@
         <v>547424.2885</v>
       </c>
       <c r="K39" s="1">
-        <v>348122.2768</v>
+        <v>348245.4434</v>
       </c>
       <c r="L39" s="1">
-        <v>12.1009</v>
+        <v>12.1052</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-6</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3637</v>
@@ -9728,10 +9731,10 @@
         <v>558313.5304</v>
       </c>
       <c r="K40" s="1">
-        <v>325218.9818</v>
+        <v>325433.6913</v>
       </c>
       <c r="L40" s="1">
-        <v>11.9227</v>
+        <v>11.9305</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-5</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.6447</v>
@@ -9781,10 +9784,10 @@
         <v>548170.3294</v>
       </c>
       <c r="K41" s="1">
-        <v>336461.4252</v>
+        <v>336676.1347</v>
       </c>
       <c r="L41" s="1">
-        <v>12.0132</v>
+        <v>12.0209</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-4</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.486</v>
@@ -9834,10 +9837,10 @@
         <v>608615.5294</v>
       </c>
       <c r="K42" s="1">
-        <v>368836.2071</v>
+        <v>369050.9165</v>
       </c>
       <c r="L42" s="1">
-        <v>12.2075</v>
+        <v>12.2146</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-3</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.1958</v>
@@ -9887,10 +9890,10 @@
         <v>639415.8774999999</v>
       </c>
       <c r="K43" s="1">
-        <v>355623.7534</v>
+        <v>355891.2547</v>
       </c>
       <c r="L43" s="1">
-        <v>12.1115</v>
+        <v>12.1206</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-2</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.4264</v>
@@ -9940,10 +9943,10 @@
         <v>656053.6056</v>
       </c>
       <c r="K44" s="1">
-        <v>347058.1846</v>
+        <v>347359.8887</v>
       </c>
       <c r="L44" s="1">
-        <v>12.0362</v>
+        <v>12.0466</v>
       </c>
       <c r="M44" s="1">
         <v>0.75</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>17.107</v>
@@ -9993,10 +9996,10 @@
         <v>705314.4746</v>
       </c>
       <c r="K45" s="1">
-        <v>352773.5974</v>
+        <v>353075.3015</v>
       </c>
       <c r="L45" s="1">
-        <v>12.0888</v>
+        <v>12.0991</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.8894</v>
@@ -10046,10 +10049,10 @@
         <v>709070.6781</v>
       </c>
       <c r="K46" s="1">
-        <v>345315.4532</v>
+        <v>345646.9615</v>
       </c>
       <c r="L46" s="1">
-        <v>12.0123</v>
+        <v>12.0239</v>
       </c>
       <c r="M46" s="1">
         <v>1</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.4004</v>
@@ -10099,10 +10102,10 @@
         <v>730298.0226</v>
       </c>
       <c r="K47" s="1">
-        <v>364088.1762</v>
+        <v>364419.6845</v>
       </c>
       <c r="L47" s="1">
-        <v>12.1948</v>
+        <v>12.2059</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>15.3877</v>
@@ -10152,10 +10155,10 @@
         <v>708341.2295</v>
       </c>
       <c r="K48" s="1">
-        <v>391282.8607</v>
+        <v>391614.369</v>
       </c>
       <c r="L48" s="1">
-        <v>12.4174</v>
+        <v>12.4279</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>14.6367</v>
@@ -10205,10 +10208,10 @@
         <v>692377.3302</v>
       </c>
       <c r="K49" s="1">
-        <v>435887.9254</v>
+        <v>436219.4337</v>
       </c>
       <c r="L49" s="1">
-        <v>12.6697</v>
+        <v>12.6794</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.0061</v>
@@ -10258,10 +10261,10 @@
         <v>641956.8675000001</v>
       </c>
       <c r="K50" s="1">
-        <v>474469.4595</v>
+        <v>474800.9678</v>
       </c>
       <c r="L50" s="1">
-        <v>12.8115</v>
+        <v>12.8205</v>
       </c>
       <c r="M50" s="1">
         <v>0.5</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.835</v>
@@ -10311,10 +10314,10 @@
         <v>703614.8179</v>
       </c>
       <c r="K51" s="1">
-        <v>547733.5506</v>
+        <v>548065.0588999999</v>
       </c>
       <c r="L51" s="1">
-        <v>12.8406</v>
+        <v>12.8484</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>14.4216</v>
@@ -10364,10 +10367,10 @@
         <v>737635.2585</v>
       </c>
       <c r="K52" s="1">
-        <v>525126.3181</v>
+        <v>525548.1725</v>
       </c>
       <c r="L52" s="1">
-        <v>12.8</v>
+        <v>12.8103</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.2404</v>
@@ -10417,10 +10420,10 @@
         <v>700186.6887000001</v>
       </c>
       <c r="K53" s="1">
-        <v>513893.2828</v>
+        <v>514359.9901</v>
       </c>
       <c r="L53" s="1">
-        <v>12.7681</v>
+        <v>12.7797</v>
       </c>
       <c r="M53" s="1">
         <v>0.4</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.382</v>
@@ -10470,10 +10473,10 @@
         <v>686041.0209</v>
       </c>
       <c r="K54" s="1">
-        <v>574480.3115</v>
+        <v>574947.0187</v>
       </c>
       <c r="L54" s="1">
-        <v>12.8189</v>
+        <v>12.8294</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.9583</v>
@@ -10523,10 +10526,10 @@
         <v>675130.0658</v>
       </c>
       <c r="K55" s="1">
-        <v>626040.3101999999</v>
+        <v>626507.0175</v>
       </c>
       <c r="L55" s="1">
-        <v>12.784</v>
+        <v>12.7935</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.2036</v>
@@ -10576,10 +10579,10 @@
         <v>697674.6066000001</v>
       </c>
       <c r="K56" s="1">
-        <v>659906.2256</v>
+        <v>660372.9329</v>
       </c>
       <c r="L56" s="1">
-        <v>12.7402</v>
+        <v>12.7492</v>
       </c>
       <c r="M56" s="1">
         <v>0.4</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.9136</v>
@@ -10629,10 +10632,10 @@
         <v>763047.2098</v>
       </c>
       <c r="K57" s="1">
-        <v>660318.7879999999</v>
+        <v>660785.4953</v>
       </c>
       <c r="L57" s="1">
-        <v>12.7399</v>
+        <v>12.7489</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.4338</v>
@@ -10682,10 +10685,10 @@
         <v>799003.178</v>
       </c>
       <c r="K58" s="1">
-        <v>636653.2116</v>
+        <v>637214.4751</v>
       </c>
       <c r="L58" s="1">
-        <v>12.7326</v>
+        <v>12.7438</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.9657</v>
@@ -10735,10 +10738,10 @@
         <v>786090.9592</v>
       </c>
       <c r="K59" s="1">
-        <v>623868.2142</v>
+        <v>624480.577</v>
       </c>
       <c r="L59" s="1">
-        <v>12.7185</v>
+        <v>12.731</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3568</v>
@@ -10788,10 +10791,10 @@
         <v>829426.7449</v>
       </c>
       <c r="K60" s="1">
-        <v>660213.8091</v>
+        <v>660826.1719</v>
       </c>
       <c r="L60" s="1">
-        <v>12.7332</v>
+        <v>12.745</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.2487</v>
@@ -10841,10 +10844,10 @@
         <v>833887.8747</v>
       </c>
       <c r="K61" s="1">
-        <v>653303.8845</v>
+        <v>653943.8693</v>
       </c>
       <c r="L61" s="1">
-        <v>12.7267</v>
+        <v>12.7392</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3991</v>
@@ -10894,10 +10897,10 @@
         <v>851732.2517</v>
       </c>
       <c r="K62" s="1">
-        <v>672340.1498</v>
+        <v>672980.1346</v>
       </c>
       <c r="L62" s="1">
-        <v>12.7416</v>
+        <v>12.7537</v>
       </c>
       <c r="M62" s="1">
         <v>0.4</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.6477</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-43</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.568899999999999</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-42</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.429399999999999</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-41</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.603999999999999</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-40</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3595</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0875</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-38</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.1692</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0872</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-36</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0976</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-35</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.8505</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-34</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8576</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-33</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5699</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-32</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5994</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-31</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6663</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-30</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.701</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-29</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8109</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-28</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.9322</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-27</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.5846</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-26</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2867</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.0645</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8083</v>
@@ -12086,10 +12089,10 @@
         <v>267565.1296</v>
       </c>
       <c r="K22" s="1">
-        <v>192064.3994</v>
+        <v>192068.788</v>
       </c>
       <c r="L22" s="1">
-        <v>11.373</v>
+        <v>11.3732</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.5636</v>
@@ -12139,10 +12142,10 @@
         <v>273447.0433</v>
       </c>
       <c r="K23" s="1">
-        <v>191729.1375</v>
+        <v>191734.866</v>
       </c>
       <c r="L23" s="1">
-        <v>11.3694</v>
+        <v>11.3698</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-22</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.1788</v>
@@ -12192,10 +12195,10 @@
         <v>284025.854</v>
       </c>
       <c r="K24" s="1">
-        <v>208237.0982</v>
+        <v>208242.8267</v>
       </c>
       <c r="L24" s="1">
-        <v>11.5187</v>
+        <v>11.519</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.5668</v>
@@ -12245,10 +12248,10 @@
         <v>321034.1631</v>
       </c>
       <c r="K25" s="1">
-        <v>227705.9469</v>
+        <v>227711.6754</v>
       </c>
       <c r="L25" s="1">
-        <v>11.6458</v>
+        <v>11.6461</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-20</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.962</v>
@@ -12298,10 +12301,10 @@
         <v>319834.8789</v>
       </c>
       <c r="K26" s="1">
-        <v>213133.2162</v>
+        <v>213197.1517</v>
       </c>
       <c r="L26" s="1">
-        <v>11.4871</v>
+        <v>11.4905</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-19</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.2659</v>
@@ -12351,10 +12354,10 @@
         <v>303778.8332</v>
       </c>
       <c r="K27" s="1">
-        <v>237125.714</v>
+        <v>237189.6495</v>
       </c>
       <c r="L27" s="1">
-        <v>11.6989</v>
+        <v>11.702</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-18</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.4103</v>
@@ -12404,10 +12407,10 @@
         <v>317065.3987</v>
       </c>
       <c r="K28" s="1">
-        <v>284448.6324</v>
+        <v>284512.5679</v>
       </c>
       <c r="L28" s="1">
-        <v>11.7933</v>
+        <v>11.796</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-17</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.3976</v>
@@ -12457,10 +12460,10 @@
         <v>326711.3349</v>
       </c>
       <c r="K29" s="1">
-        <v>293963.6058</v>
+        <v>294027.5413</v>
       </c>
       <c r="L29" s="1">
-        <v>11.813</v>
+        <v>11.8156</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-16</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.9013</v>
@@ -12510,10 +12513,10 @@
         <v>360909.5925</v>
       </c>
       <c r="K30" s="1">
-        <v>307415.44</v>
+        <v>307479.3755</v>
       </c>
       <c r="L30" s="1">
-        <v>11.8385</v>
+        <v>11.8409</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-15</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.3527</v>
@@ -12563,10 +12566,10 @@
         <v>382612.8875</v>
       </c>
       <c r="K31" s="1">
-        <v>307575.1145</v>
+        <v>307639.0501</v>
       </c>
       <c r="L31" s="1">
-        <v>11.839</v>
+        <v>11.8414</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8804</v>
@@ -12616,10 +12619,10 @@
         <v>406352.152</v>
       </c>
       <c r="K32" s="1">
-        <v>309222.8083</v>
+        <v>309286.7438</v>
       </c>
       <c r="L32" s="1">
-        <v>11.8462</v>
+        <v>11.8487</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6268</v>
@@ -12669,10 +12672,10 @@
         <v>447530.8883</v>
       </c>
       <c r="K33" s="1">
-        <v>308954.3712</v>
+        <v>309019.3799</v>
       </c>
       <c r="L33" s="1">
-        <v>11.8447</v>
+        <v>11.8472</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3636</v>
@@ -12722,10 +12725,10 @@
         <v>476417.1354</v>
       </c>
       <c r="K34" s="1">
-        <v>303111.9502</v>
+        <v>303200.279</v>
       </c>
       <c r="L34" s="1">
-        <v>11.8011</v>
+        <v>11.8045</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8711</v>
@@ -12775,10 +12778,10 @@
         <v>448658.2064</v>
       </c>
       <c r="K35" s="1">
-        <v>297954.5061</v>
+        <v>298063.4387</v>
       </c>
       <c r="L35" s="1">
-        <v>11.7536</v>
+        <v>11.7579</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1252</v>
@@ -12828,10 +12831,10 @@
         <v>477233.5709</v>
       </c>
       <c r="K36" s="1">
-        <v>349807.3908</v>
+        <v>349916.3234</v>
       </c>
       <c r="L36" s="1">
-        <v>12.0288</v>
+        <v>12.0326</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-9</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1934</v>
@@ -12881,10 +12884,10 @@
         <v>489216.4902</v>
       </c>
       <c r="K37" s="1">
-        <v>356484.9291</v>
+        <v>356593.8617</v>
       </c>
       <c r="L37" s="1">
-        <v>12.0627</v>
+        <v>12.0664</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-8</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1176</v>
@@ -12934,10 +12937,10 @@
         <v>496868.6888</v>
       </c>
       <c r="K38" s="1">
-        <v>368690.127</v>
+        <v>368799.0596</v>
       </c>
       <c r="L38" s="1">
-        <v>12.1237</v>
+        <v>12.1272</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-7</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3311</v>
@@ -12987,10 +12990,10 @@
         <v>558741.778</v>
       </c>
       <c r="K39" s="1">
-        <v>385363.4651</v>
+        <v>385472.3977</v>
       </c>
       <c r="L39" s="1">
-        <v>12.1991</v>
+        <v>12.2026</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-6</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3637</v>
@@ -13040,10 +13043,10 @@
         <v>569720.8758</v>
       </c>
       <c r="K40" s="1">
-        <v>361463.8745</v>
+        <v>361668.332</v>
       </c>
       <c r="L40" s="1">
-        <v>12.0353</v>
+        <v>12.0421</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-5</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.6447</v>
@@ -13093,10 +13096,10 @@
         <v>557476.8462</v>
       </c>
       <c r="K41" s="1">
-        <v>375134.663</v>
+        <v>375339.1205</v>
       </c>
       <c r="L41" s="1">
-        <v>12.1318</v>
+        <v>12.1384</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-4</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.486</v>
@@ -13146,10 +13149,10 @@
         <v>623241.6996000001</v>
       </c>
       <c r="K42" s="1">
-        <v>412213.3761</v>
+        <v>412417.8336</v>
       </c>
       <c r="L42" s="1">
-        <v>12.3238</v>
+        <v>12.3299</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-3</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.1958</v>
@@ -13199,10 +13202,10 @@
         <v>656331.8438</v>
       </c>
       <c r="K43" s="1">
-        <v>398965.6899</v>
+        <v>399223.0801</v>
       </c>
       <c r="L43" s="1">
-        <v>12.2402</v>
+        <v>12.2481</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-2</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.4264</v>
@@ -13252,10 +13255,10 @@
         <v>673720.477</v>
       </c>
       <c r="K44" s="1">
-        <v>390880.786</v>
+        <v>391170.4595</v>
       </c>
       <c r="L44" s="1">
-        <v>12.1783</v>
+        <v>12.1873</v>
       </c>
       <c r="M44" s="1">
         <v>0.75</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>17.107</v>
@@ -13305,10 +13308,10 @@
         <v>727477.5415000001</v>
       </c>
       <c r="K45" s="1">
-        <v>398711.3085</v>
+        <v>399000.9821</v>
       </c>
       <c r="L45" s="1">
-        <v>12.2408</v>
+        <v>12.2497</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.8894</v>
@@ -13358,10 +13361,10 @@
         <v>730489.1285</v>
       </c>
       <c r="K46" s="1">
-        <v>391900.7417</v>
+        <v>392217.6317</v>
       </c>
       <c r="L46" s="1">
-        <v>12.1803</v>
+        <v>12.1901</v>
       </c>
       <c r="M46" s="1">
         <v>1</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.4004</v>
@@ -13411,10 +13414,10 @@
         <v>753004.1884</v>
       </c>
       <c r="K47" s="1">
-        <v>414472.4936</v>
+        <v>414789.3836</v>
       </c>
       <c r="L47" s="1">
-        <v>12.3691</v>
+        <v>12.3785</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>15.3877</v>
@@ -13464,10 +13467,10 @@
         <v>727032.3787999999</v>
       </c>
       <c r="K48" s="1">
-        <v>446601.3407</v>
+        <v>446918.2306</v>
       </c>
       <c r="L48" s="1">
-        <v>12.5931</v>
+        <v>12.6021</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>14.6367</v>
@@ -13517,10 +13520,10 @@
         <v>707724.3176</v>
       </c>
       <c r="K49" s="1">
-        <v>498456.4599</v>
+        <v>498773.3499</v>
       </c>
       <c r="L49" s="1">
-        <v>12.8379</v>
+        <v>12.846</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.0061</v>
@@ -13570,10 +13573,10 @@
         <v>649340.0591</v>
       </c>
       <c r="K50" s="1">
-        <v>543700.7637</v>
+        <v>544017.6536</v>
       </c>
       <c r="L50" s="1">
-        <v>12.9724</v>
+        <v>12.98</v>
       </c>
       <c r="M50" s="1">
         <v>0.5</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.835</v>
@@ -13623,10 +13626,10 @@
         <v>717905.5974</v>
       </c>
       <c r="K51" s="1">
-        <v>628364.973</v>
+        <v>628681.863</v>
       </c>
       <c r="L51" s="1">
-        <v>12.9804</v>
+        <v>12.987</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>14.4216</v>
@@ -13676,10 +13679,10 @@
         <v>755241.2772</v>
       </c>
       <c r="K52" s="1">
-        <v>604509.5365</v>
+        <v>604921.7607</v>
       </c>
       <c r="L52" s="1">
-        <v>12.9479</v>
+        <v>12.9568</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.2404</v>
@@ -13729,10 +13732,10 @@
         <v>711093.0212</v>
       </c>
       <c r="K53" s="1">
-        <v>593576.52</v>
+        <v>594032.3992</v>
       </c>
       <c r="L53" s="1">
-        <v>12.9232</v>
+        <v>12.9331</v>
       </c>
       <c r="M53" s="1">
         <v>0.4</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.382</v>
@@ -13782,10 +13785,10 @@
         <v>693407.6618</v>
       </c>
       <c r="K54" s="1">
-        <v>664619.3668</v>
+        <v>665075.246</v>
       </c>
       <c r="L54" s="1">
-        <v>12.9591</v>
+        <v>12.968</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.9583</v>
@@ -13835,10 +13838,10 @@
         <v>679402.9081</v>
       </c>
       <c r="K55" s="1">
-        <v>725576.7229000001</v>
+        <v>726032.602</v>
       </c>
       <c r="L55" s="1">
-        <v>12.9108</v>
+        <v>12.9189</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.2036</v>
@@ -13888,10 +13891,10 @@
         <v>703467.752</v>
       </c>
       <c r="K56" s="1">
-        <v>744274.8782</v>
+        <v>744730.7574</v>
       </c>
       <c r="L56" s="1">
-        <v>12.8857</v>
+        <v>12.8936</v>
       </c>
       <c r="M56" s="1">
         <v>0.4</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.9136</v>
@@ -13941,10 +13944,10 @@
         <v>775729.3339</v>
       </c>
       <c r="K57" s="1">
-        <v>754274.8782</v>
+        <v>754730.7574</v>
       </c>
       <c r="L57" s="1">
-        <v>12.8765</v>
+        <v>12.8843</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.4338</v>
@@ -13994,10 +13997,10 @@
         <v>815769.3623</v>
       </c>
       <c r="K58" s="1">
-        <v>745112.2702</v>
+        <v>745604.7587</v>
       </c>
       <c r="L58" s="1">
-        <v>12.8757</v>
+        <v>12.8843</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.9657</v>
@@ -14047,10 +14050,10 @@
         <v>799176.9028</v>
       </c>
       <c r="K59" s="1">
-        <v>732479.8506</v>
+        <v>733022.8286</v>
       </c>
       <c r="L59" s="1">
-        <v>12.8661</v>
+        <v>12.8756</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3568</v>
@@ -14100,10 +14103,10 @@
         <v>847924.9972</v>
       </c>
       <c r="K60" s="1">
-        <v>776882.3709</v>
+        <v>777425.349</v>
       </c>
       <c r="L60" s="1">
-        <v>12.8732</v>
+        <v>12.8822</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.2487</v>
@@ -14153,10 +14156,10 @@
         <v>851459.872</v>
       </c>
       <c r="K61" s="1">
-        <v>771114.2067</v>
+        <v>771680.2426</v>
       </c>
       <c r="L61" s="1">
-        <v>12.8695</v>
+        <v>12.879</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3991</v>
@@ -14206,10 +14209,10 @@
         <v>870633.0963</v>
       </c>
       <c r="K62" s="1">
-        <v>795664.4425</v>
+        <v>796230.4784</v>
       </c>
       <c r="L62" s="1">
-        <v>12.8817</v>
+        <v>12.8909</v>
       </c>
       <c r="M62" s="1">
         <v>0.4</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.6477</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-43</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.568899999999999</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-42</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.429399999999999</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-41</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.603999999999999</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-40</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3595</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0875</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-38</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.1692</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0872</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-36</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0976</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-35</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.8505</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-34</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8576</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-33</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5699</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-32</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5994</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-31</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6663</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-30</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.701</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-29</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8109</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-28</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.9322</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-27</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.5846</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-26</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2867</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.0645</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8083</v>
@@ -15398,10 +15401,10 @@
         <v>269548.5797</v>
       </c>
       <c r="K22" s="1">
-        <v>202658.1246</v>
+        <v>202660.2496</v>
       </c>
       <c r="L22" s="1">
-        <v>11.427</v>
+        <v>11.4271</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.5636</v>
@@ -15451,10 +15454,10 @@
         <v>275211.0775</v>
       </c>
       <c r="K23" s="1">
-        <v>202963.1665</v>
+        <v>202965.2915</v>
       </c>
       <c r="L23" s="1">
-        <v>11.43</v>
+        <v>11.4301</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-22</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.1788</v>
@@ -15504,10 +15507,10 @@
         <v>285798.0908</v>
       </c>
       <c r="K24" s="1">
-        <v>221042.2601</v>
+        <v>221044.3851</v>
       </c>
       <c r="L24" s="1">
-        <v>11.5806</v>
+        <v>11.5807</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.5668</v>
@@ -15557,10 +15560,10 @@
         <v>324388.3238</v>
       </c>
       <c r="K25" s="1">
-        <v>242334.4804</v>
+        <v>242336.6053</v>
       </c>
       <c r="L25" s="1">
-        <v>11.7071</v>
+        <v>11.7072</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-20</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.962</v>
@@ -15610,10 +15613,10 @@
         <v>322499.7904</v>
       </c>
       <c r="K26" s="1">
-        <v>227684.3674</v>
+        <v>227745.0085</v>
       </c>
       <c r="L26" s="1">
-        <v>11.5599</v>
+        <v>11.563</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-19</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.2659</v>
@@ -15663,10 +15666,10 @@
         <v>304737.7205</v>
       </c>
       <c r="K27" s="1">
-        <v>253972.9706</v>
+        <v>254033.6117</v>
       </c>
       <c r="L27" s="1">
-        <v>11.7716</v>
+        <v>11.7744</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-18</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.4103</v>
@@ -15716,10 +15719,10 @@
         <v>318238.0284</v>
       </c>
       <c r="K28" s="1">
-        <v>304600.7039</v>
+        <v>304661.345</v>
       </c>
       <c r="L28" s="1">
-        <v>11.8547</v>
+        <v>11.8571</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-17</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.3976</v>
@@ -15769,10 +15772,10 @@
         <v>327861.5294</v>
       </c>
       <c r="K29" s="1">
-        <v>314600.7039</v>
+        <v>314661.345</v>
       </c>
       <c r="L29" s="1">
-        <v>11.8724</v>
+        <v>11.8747</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-16</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.9013</v>
@@ -15822,10 +15825,10 @@
         <v>363471.4631</v>
       </c>
       <c r="K30" s="1">
-        <v>324600.7039</v>
+        <v>324661.345</v>
       </c>
       <c r="L30" s="1">
-        <v>11.8886</v>
+        <v>11.8908</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-15</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.3527</v>
@@ -15875,10 +15878,10 @@
         <v>386033.1348</v>
       </c>
       <c r="K31" s="1">
-        <v>333074.4961</v>
+        <v>333135.1372</v>
       </c>
       <c r="L31" s="1">
-        <v>11.9129</v>
+        <v>11.9151</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8804</v>
@@ -15928,10 +15931,10 @@
         <v>410855.9375</v>
       </c>
       <c r="K32" s="1">
-        <v>335889.9983</v>
+        <v>335950.6394</v>
       </c>
       <c r="L32" s="1">
-        <v>11.9239</v>
+        <v>11.926</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6268</v>
@@ -15981,10 +15984,10 @@
         <v>454558.1464</v>
       </c>
       <c r="K33" s="1">
-        <v>336689.9374</v>
+        <v>336750.5785</v>
       </c>
       <c r="L33" s="1">
-        <v>11.9279</v>
+        <v>11.9301</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3636</v>
@@ -16034,10 +16037,10 @@
         <v>485053.3636</v>
       </c>
       <c r="K34" s="1">
-        <v>331505.3776</v>
+        <v>331586.713</v>
       </c>
       <c r="L34" s="1">
-        <v>11.8933</v>
+        <v>11.8962</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8711</v>
@@ -16087,10 +16090,10 @@
         <v>453962.7786</v>
       </c>
       <c r="K35" s="1">
-        <v>327095.7876</v>
+        <v>327194.739</v>
       </c>
       <c r="L35" s="1">
-        <v>11.857</v>
+        <v>11.8605</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1252</v>
@@ -16140,10 +16143,10 @@
         <v>484194.7771</v>
       </c>
       <c r="K36" s="1">
-        <v>384761.4303</v>
+        <v>384860.3818</v>
       </c>
       <c r="L36" s="1">
-        <v>12.1239</v>
+        <v>12.127</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-9</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1934</v>
@@ -16193,10 +16196,10 @@
         <v>496359.7775</v>
       </c>
       <c r="K37" s="1">
-        <v>393337.4385</v>
+        <v>393436.39</v>
       </c>
       <c r="L37" s="1">
-        <v>12.1619</v>
+        <v>12.165</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-8</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1176</v>
@@ -16246,10 +16249,10 @@
         <v>503777.9094</v>
       </c>
       <c r="K38" s="1">
-        <v>408035.7194</v>
+        <v>408134.6709</v>
       </c>
       <c r="L38" s="1">
-        <v>12.2257</v>
+        <v>12.2287</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-7</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3311</v>
@@ -16299,10 +16302,10 @@
         <v>570821.3521</v>
       </c>
       <c r="K39" s="1">
-        <v>427728.9363</v>
+        <v>427827.8878</v>
       </c>
       <c r="L39" s="1">
-        <v>12.3026</v>
+        <v>12.3055</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-6</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3637</v>
@@ -16352,10 +16355,10 @@
         <v>581902.0220999999</v>
       </c>
       <c r="K40" s="1">
-        <v>402874.1</v>
+        <v>403072.3944</v>
       </c>
       <c r="L40" s="1">
-        <v>12.1533</v>
+        <v>12.1593</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-5</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.6447</v>
@@ -16405,10 +16408,10 @@
         <v>567274.2378</v>
       </c>
       <c r="K41" s="1">
-        <v>419467.7032</v>
+        <v>419665.9976</v>
       </c>
       <c r="L41" s="1">
-        <v>12.2554</v>
+        <v>12.2612</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-4</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.486</v>
@@ -16458,10 +16461,10 @@
         <v>639083.5237</v>
       </c>
       <c r="K42" s="1">
-        <v>462071.4358</v>
+        <v>462269.7303</v>
       </c>
       <c r="L42" s="1">
-        <v>12.4445</v>
+        <v>12.4498</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-3</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.1958</v>
@@ -16511,10 +16514,10 @@
         <v>674789.3967</v>
       </c>
       <c r="K43" s="1">
-        <v>448984.4565</v>
+        <v>449235.0415</v>
       </c>
       <c r="L43" s="1">
-        <v>12.3731</v>
+        <v>12.38</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-2</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.4264</v>
@@ -16564,10 +16567,10 @@
         <v>693038.8412</v>
       </c>
       <c r="K44" s="1">
-        <v>441661.6299</v>
+        <v>441941.4553</v>
       </c>
       <c r="L44" s="1">
-        <v>12.3245</v>
+        <v>12.3323</v>
       </c>
       <c r="M44" s="1">
         <v>0.75</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>17.107</v>
@@ -16617,10 +16620,10 @@
         <v>751958.5974</v>
       </c>
       <c r="K45" s="1">
-        <v>452142.4927</v>
+        <v>452422.3181</v>
       </c>
       <c r="L45" s="1">
-        <v>12.3967</v>
+        <v>12.4044</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.8894</v>
@@ -16670,10 +16673,10 @@
         <v>754110.5455</v>
       </c>
       <c r="K46" s="1">
-        <v>446315.7056</v>
+        <v>446618.816</v>
       </c>
       <c r="L46" s="1">
-        <v>12.3521</v>
+        <v>12.3605</v>
       </c>
       <c r="M46" s="1">
         <v>1</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.4004</v>
@@ -16723,10 +16726,10 @@
         <v>778103.9489</v>
       </c>
       <c r="K47" s="1">
-        <v>473525.7788</v>
+        <v>473828.8892</v>
       </c>
       <c r="L47" s="1">
-        <v>12.5468</v>
+        <v>12.5549</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>15.3877</v>
@@ -16776,10 +16779,10 @@
         <v>747463.0544</v>
       </c>
       <c r="K48" s="1">
-        <v>511637.7375</v>
+        <v>511940.8479</v>
       </c>
       <c r="L48" s="1">
-        <v>12.7718</v>
+        <v>12.7794</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>14.6367</v>
@@ -16829,10 +16832,10 @@
         <v>724252.0719</v>
       </c>
       <c r="K49" s="1">
-        <v>572203.4956</v>
+        <v>572506.606</v>
       </c>
       <c r="L49" s="1">
-        <v>13.0082</v>
+        <v>13.0151</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.0061</v>
@@ -16882,10 +16885,10 @@
         <v>656541.6936</v>
       </c>
       <c r="K50" s="1">
-        <v>625518.3234</v>
+        <v>625821.4338</v>
       </c>
       <c r="L50" s="1">
-        <v>13.1347</v>
+        <v>13.1411</v>
       </c>
       <c r="M50" s="1">
         <v>0.5</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.835</v>
@@ -16935,10 +16938,10 @@
         <v>730243.9823</v>
       </c>
       <c r="K51" s="1">
-        <v>673905.1758</v>
+        <v>674208.2862</v>
       </c>
       <c r="L51" s="1">
-        <v>13.1273</v>
+        <v>13.1332</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>14.4216</v>
@@ -16988,10 +16991,10 @@
         <v>771376.8569</v>
       </c>
       <c r="K52" s="1">
-        <v>702032.3522</v>
+        <v>702335.4626</v>
       </c>
       <c r="L52" s="1">
-        <v>13.1553</v>
+        <v>13.1609</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.2404</v>
@@ -17041,10 +17044,10 @@
         <v>719299.5987</v>
       </c>
       <c r="K53" s="1">
-        <v>691798.6335</v>
+        <v>692142.6066000001</v>
       </c>
       <c r="L53" s="1">
-        <v>13.1378</v>
+        <v>13.1444</v>
       </c>
       <c r="M53" s="1">
         <v>0.4</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.382</v>
@@ -17094,10 +17097,10 @@
         <v>700848.0975</v>
       </c>
       <c r="K54" s="1">
-        <v>725294.7858</v>
+        <v>725638.7589</v>
       </c>
       <c r="L54" s="1">
-        <v>13.1437</v>
+        <v>13.15</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.9583</v>
@@ -17147,10 +17150,10 @@
         <v>686414.7201</v>
       </c>
       <c r="K55" s="1">
-        <v>754251.2817000001</v>
+        <v>754595.2547</v>
       </c>
       <c r="L55" s="1">
-        <v>13.1138</v>
+        <v>13.1198</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.2036</v>
@@ -17200,10 +17203,10 @@
         <v>710658.8758</v>
       </c>
       <c r="K56" s="1">
-        <v>764251.2817000001</v>
+        <v>764595.2547</v>
       </c>
       <c r="L56" s="1">
-        <v>13.0977</v>
+        <v>13.1036</v>
       </c>
       <c r="M56" s="1">
         <v>0.4</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.9136</v>
@@ -17253,10 +17256,10 @@
         <v>783551.4052</v>
       </c>
       <c r="K57" s="1">
-        <v>774251.2817000001</v>
+        <v>774595.2547</v>
       </c>
       <c r="L57" s="1">
-        <v>13.0856</v>
+        <v>13.0915</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.4338</v>
@@ -17306,10 +17309,10 @@
         <v>825385.5131</v>
       </c>
       <c r="K58" s="1">
-        <v>805257.3572</v>
+        <v>805601.3303</v>
       </c>
       <c r="L58" s="1">
-        <v>13.08</v>
+        <v>13.0855</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.9657</v>
@@ -17359,10 +17362,10 @@
         <v>806241.8816</v>
       </c>
       <c r="K59" s="1">
-        <v>815257.3572</v>
+        <v>815601.3303</v>
       </c>
       <c r="L59" s="1">
-        <v>13.0845</v>
+        <v>13.09</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3568</v>
@@ -17412,10 +17415,10 @@
         <v>857643.7576</v>
       </c>
       <c r="K60" s="1">
-        <v>825257.3572</v>
+        <v>825601.3303</v>
       </c>
       <c r="L60" s="1">
-        <v>13.0834</v>
+        <v>13.0888</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.2487</v>
@@ -17465,10 +17468,10 @@
         <v>860514.2926</v>
       </c>
       <c r="K61" s="1">
-        <v>852080.284</v>
+        <v>852424.2571</v>
       </c>
       <c r="L61" s="1">
-        <v>13.0926</v>
+        <v>13.0979</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3991</v>
@@ -17518,10 +17521,10 @@
         <v>880356.0979000001</v>
       </c>
       <c r="K62" s="1">
-        <v>862080.284</v>
+        <v>862424.2571</v>
       </c>
       <c r="L62" s="1">
-        <v>13.0947</v>
+        <v>13.0999</v>
       </c>
       <c r="M62" s="1">
         <v>0.4</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.2199</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6133</v>
+        <v>12.6275</v>
       </c>
       <c r="E3" s="1">
-        <v>12.7416</v>
+        <v>12.7537</v>
       </c>
       <c r="F3" s="1">
-        <v>12.8817</v>
+        <v>12.8909</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0947</v>
+        <v>13.0999</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>286124.6074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0115</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.4542</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2656</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0934</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0208</v>
       </c>
     </row>
   </sheetData>
